--- a/biology/Médecine/Infiltrat_en_verre_dépoli/Infiltrat_en_verre_dépoli.xlsx
+++ b/biology/Médecine/Infiltrat_en_verre_dépoli/Infiltrat_en_verre_dépoli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Infiltrat_en_verre_d%C3%A9poli</t>
+          <t>Infiltrat_en_verre_dépoli</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle infiltrat en verre dépoli une image pathologique qu'on peut voir sur une radiographie pulmonaire ou en tomodensitométrie.
 Cet aspect est fréquent lors d'affections pulmonaires aiguës ou subaiguës : affections virales, poumon éosinophile, alvéolite allergique extrinsèque, pneumocystose pulmonaire, protéinose alvéolaire, etc.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Infiltrat_en_verre_d%C3%A9poli</t>
+          <t>Infiltrat_en_verre_dépoli</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un aspect de halo aux limites floues, focalisé ou diffus, sans systématisation. 
 L'arborescence vasculaire reste bien visible au sein de cet infiltrat.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Infiltrat_en_verre_d%C3%A9poli</t>
+          <t>Infiltrat_en_verre_dépoli</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Signification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette image correspond à une hypertrophie inflammatoire du tissu interstitiel (parois alvéolaires et interstitium interlobulaire) qui devient radiologiquement individualisable. 
 Elle peut aussi correspondre au comblement partiel de la lumière de certaines alvéoles par des débris cellulaires ou par des membranes hyalines.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Infiltrat_en_verre_d%C3%A9poli</t>
+          <t>Infiltrat_en_verre_dépoli</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,14 +593,16 @@
           <t>Signe de halo inversé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Un signe de halo inversé est une opacité centrale « en verre dépoli » entourée d'une consolidation plus dense. 
-Les critères de ce signe incluent que la consolidation doit former plus des trois quarts d'un cercle et avoir une épaisseur d'au moins 2 mm[1]. 
+Les critères de ce signe incluent que la consolidation doit former plus des trois quarts d'un cercle et avoir une épaisseur d'au moins 2 mm. 
 Significations possibles : 
-probable bronchiolite oblitérante avec organisation pneumonique[2], mais ce signe n'est observée que chez environ 20% des personnes atteintes de cette maladie[1] ;
-infarctus pulmonaire (généralement consécutif à une embolie pulmonaire) où le halo est créé par des hémorragies dans le poumon[3] ;
-certaines maladies infectieuses telles que la paracoccidioïdomycose, la tuberculose, la zygomycose ou l’aspergillose, ainsi que la granulomatose avec polyangéite, la granulomatose lymphomatoïde et la sarcoïdose[4].</t>
+probable bronchiolite oblitérante avec organisation pneumonique, mais ce signe n'est observée que chez environ 20% des personnes atteintes de cette maladie ;
+infarctus pulmonaire (généralement consécutif à une embolie pulmonaire) où le halo est créé par des hémorragies dans le poumon ;
+certaines maladies infectieuses telles que la paracoccidioïdomycose, la tuberculose, la zygomycose ou l’aspergillose, ainsi que la granulomatose avec polyangéite, la granulomatose lymphomatoïde et la sarcoïdose.</t>
         </is>
       </c>
     </row>
